--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123052a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123052a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.4399031801799423</v>
+      </c>
+      <c r="D5">
+        <v>0.5275061508494193</v>
+      </c>
+      <c r="E5">
+        <v>2.737410588427845</v>
+      </c>
+      <c r="F5">
+        <v>1.384985282745689</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4399031801799423</v>
+        <v>1.335384752081606</v>
       </c>
       <c r="D6">
-        <v>0.5275061508494193</v>
+        <v>1.535156074453575</v>
       </c>
       <c r="E6">
-        <v>2.737410588427845</v>
+        <v>17.97002347585767</v>
       </c>
       <c r="F6">
-        <v>1.384985282745689</v>
+        <v>5.878965376282862</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.335384752081606</v>
+        <v>0.8602135659447336</v>
       </c>
       <c r="D7">
-        <v>1.535156074453575</v>
+        <v>1.173307575357557</v>
       </c>
       <c r="E7">
-        <v>17.97002347585767</v>
+        <v>6.043527938638534</v>
       </c>
       <c r="F7">
-        <v>5.878965376282862</v>
+        <v>2.609444626973442</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.193214881387107</v>
+      </c>
+      <c r="D8">
+        <v>2.911482912322386</v>
+      </c>
+      <c r="E8">
+        <v>24.07234928853157</v>
+      </c>
+      <c r="F8">
+        <v>7.175629405992492</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8602135659447336</v>
+        <v>3.69951004193659</v>
       </c>
       <c r="D9">
-        <v>1.173307575357557</v>
+        <v>5.612709456251123</v>
       </c>
       <c r="E9">
-        <v>6.043527938638534</v>
+        <v>35.77130731171069</v>
       </c>
       <c r="F9">
-        <v>2.609444626973442</v>
+        <v>11.04143984650027</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.193214881387107</v>
+        <v>2.477124987984817</v>
       </c>
       <c r="D10">
-        <v>2.911482912322386</v>
+        <v>3.169250689674624</v>
       </c>
       <c r="E10">
-        <v>24.07234928853157</v>
+        <v>12.04659719964503</v>
       </c>
       <c r="F10">
-        <v>7.175629405992492</v>
+        <v>7.289553414253438</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.69951004193659</v>
+        <v>4.590182961826829</v>
       </c>
       <c r="D11">
-        <v>5.612709456251123</v>
+        <v>5.698958779538588</v>
       </c>
       <c r="E11">
-        <v>35.77130731171069</v>
+        <v>22.09595790184138</v>
       </c>
       <c r="F11">
-        <v>11.04143984650027</v>
+        <v>10.20229288373201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.477124987984817</v>
+        <v>1.152269072821357</v>
       </c>
       <c r="D12">
-        <v>3.169250689674624</v>
+        <v>1.603363722870843</v>
       </c>
       <c r="E12">
-        <v>12.04659719964503</v>
+        <v>8.634474938806568</v>
       </c>
       <c r="F12">
-        <v>7.289553414253438</v>
+        <v>3.526454261321574</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.590182961826829</v>
+        <v>4.316702302280556</v>
       </c>
       <c r="D13">
-        <v>5.698958779538588</v>
+        <v>6.109308419453246</v>
       </c>
       <c r="E13">
-        <v>22.09595790184138</v>
+        <v>20.05797262579961</v>
       </c>
       <c r="F13">
-        <v>10.20229288373201</v>
+        <v>10.86469466741415</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.152269072821357</v>
+        <v>2.438136013764607</v>
       </c>
       <c r="D14">
-        <v>1.603363722870843</v>
+        <v>2.78768248113323</v>
       </c>
       <c r="E14">
-        <v>8.634474938806568</v>
+        <v>19.85726017101883</v>
       </c>
       <c r="F14">
-        <v>3.526454261321574</v>
+        <v>9.409144616500033</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.316702302280556</v>
+        <v>0.7938248349285388</v>
       </c>
       <c r="D15">
-        <v>6.109308419453246</v>
+        <v>0.9477475005398803</v>
       </c>
       <c r="E15">
-        <v>20.05797262579961</v>
+        <v>4.177728229979398</v>
       </c>
       <c r="F15">
-        <v>10.86469466741415</v>
+        <v>2.383721184206187</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.438136013764607</v>
+        <v>3.340180815296201</v>
       </c>
       <c r="D16">
-        <v>2.78768248113323</v>
+        <v>3.7212289197544</v>
       </c>
       <c r="E16">
-        <v>19.85726017101883</v>
+        <v>17.0150257660359</v>
       </c>
       <c r="F16">
-        <v>9.409144616500033</v>
+        <v>8.463295984703214</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.7938248349285388</v>
+        <v>2.458444098609251</v>
       </c>
       <c r="D17">
-        <v>0.9477475005398803</v>
+        <v>2.89281763361571</v>
       </c>
       <c r="E17">
-        <v>4.177728229979398</v>
+        <v>20.21066608220105</v>
       </c>
       <c r="F17">
-        <v>2.383721184206187</v>
+        <v>9.085554277468969</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.340180815296201</v>
+        <v>1.376670179912471</v>
       </c>
       <c r="D18">
-        <v>3.7212289197544</v>
+        <v>1.76285044242224</v>
       </c>
       <c r="E18">
-        <v>17.0150257660359</v>
+        <v>7.964038797145003</v>
       </c>
       <c r="F18">
-        <v>8.463295984703214</v>
+        <v>4.455971786085486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.458444098609251</v>
+        <v>3.048872810944973</v>
       </c>
       <c r="D19">
-        <v>2.89281763361571</v>
+        <v>3.701681242275467</v>
       </c>
       <c r="E19">
-        <v>20.21066608220105</v>
+        <v>12.54572541072434</v>
       </c>
       <c r="F19">
-        <v>9.085554277468969</v>
+        <v>8.986151442785186</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.376670179912471</v>
+        <v>3.980038577750771</v>
       </c>
       <c r="D20">
-        <v>1.76285044242224</v>
+        <v>4.264667367968249</v>
       </c>
       <c r="E20">
-        <v>7.964038797145003</v>
+        <v>18.98012156062527</v>
       </c>
       <c r="F20">
-        <v>4.455971786085486</v>
+        <v>9.468640164810299</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.048872810944973</v>
+        <v>1.621096193996704</v>
       </c>
       <c r="D21">
-        <v>3.701681242275467</v>
+        <v>2.335306481694137</v>
       </c>
       <c r="E21">
-        <v>12.54572541072434</v>
+        <v>10.17302969544846</v>
       </c>
       <c r="F21">
-        <v>8.986151442785186</v>
+        <v>4.369688169778543</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.980038577750771</v>
+        <v>3.597098999316666</v>
       </c>
       <c r="D22">
-        <v>4.264667367968249</v>
+        <v>4.627942946492387</v>
       </c>
       <c r="E22">
-        <v>18.98012156062527</v>
+        <v>20.65315554418556</v>
       </c>
       <c r="F22">
-        <v>9.468640164810299</v>
+        <v>8.599960825952488</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.621096193996704</v>
+        <v>2.393609804511681</v>
       </c>
       <c r="D23">
-        <v>2.335306481694137</v>
+        <v>3.609634978669823</v>
       </c>
       <c r="E23">
-        <v>10.17302969544846</v>
+        <v>16.45586847343364</v>
       </c>
       <c r="F23">
-        <v>4.369688169778543</v>
+        <v>6.048967412952</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.597098999316666</v>
+        <v>1.22292044087726</v>
       </c>
       <c r="D24">
-        <v>4.627942946492387</v>
+        <v>1.512999333209096</v>
       </c>
       <c r="E24">
-        <v>20.65315554418556</v>
+        <v>6.824019496045922</v>
       </c>
       <c r="F24">
-        <v>8.599960825952488</v>
+        <v>4.666218755511706</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.393609804511681</v>
+        <v>0.7618172415209605</v>
       </c>
       <c r="D25">
-        <v>3.609634978669823</v>
+        <v>0.8936742076290219</v>
       </c>
       <c r="E25">
-        <v>16.45586847343364</v>
+        <v>5.273803690523174</v>
       </c>
       <c r="F25">
-        <v>6.048967412952</v>
+        <v>2.484777781291348</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.22292044087726</v>
+        <v>1.297778704140296</v>
       </c>
       <c r="D26">
-        <v>1.512999333209096</v>
+        <v>1.596316572967017</v>
       </c>
       <c r="E26">
-        <v>6.824019496045922</v>
+        <v>9.708213835677373</v>
       </c>
       <c r="F26">
-        <v>4.666218755511706</v>
+        <v>4.212482993158488</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.7618172415209605</v>
+        <v>2.695006864806901</v>
       </c>
       <c r="D27">
-        <v>0.8936742076290219</v>
+        <v>3.37767965826754</v>
       </c>
       <c r="E27">
-        <v>5.273803690523174</v>
+        <v>15.65864445176816</v>
       </c>
       <c r="F27">
-        <v>2.484777781291348</v>
+        <v>9.060356412160344</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.297778704140296</v>
+        <v>1.785156484821774</v>
       </c>
       <c r="D28">
-        <v>1.596316572967017</v>
+        <v>2.006107364375958</v>
       </c>
       <c r="E28">
-        <v>9.708213835677373</v>
+        <v>11.69269254545606</v>
       </c>
       <c r="F28">
-        <v>4.212482993158488</v>
+        <v>4.805685195268548</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2.695006864806901</v>
+        <v>1.120339113884299</v>
       </c>
       <c r="D29">
-        <v>3.37767965826754</v>
+        <v>1.313813025446693</v>
       </c>
       <c r="E29">
-        <v>15.65864445176816</v>
+        <v>7.554510465881694</v>
       </c>
       <c r="F29">
-        <v>9.060356412160344</v>
+        <v>3.911455828520794</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1.785156484821774</v>
+        <v>1.031744124845803</v>
       </c>
       <c r="D30">
-        <v>2.006107364375958</v>
+        <v>1.257943242151135</v>
       </c>
       <c r="E30">
-        <v>11.69269254545606</v>
+        <v>8.352212894646163</v>
       </c>
       <c r="F30">
-        <v>4.805685195268548</v>
+        <v>3.582492955611385</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.120339113884299</v>
+        <v>1.455880932987914</v>
       </c>
       <c r="D31">
-        <v>1.313813025446693</v>
+        <v>1.736372179310692</v>
       </c>
       <c r="E31">
-        <v>7.554510465881694</v>
+        <v>13.12608127773571</v>
       </c>
       <c r="F31">
-        <v>3.911455828520794</v>
+        <v>5.315447045867445</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.031744124845803</v>
+        <v>2.684194555028954</v>
       </c>
       <c r="D32">
-        <v>1.257943242151135</v>
+        <v>2.833870011473807</v>
       </c>
       <c r="E32">
-        <v>8.352212894646163</v>
+        <v>29.82756396382268</v>
       </c>
       <c r="F32">
-        <v>3.582492955611385</v>
+        <v>9.842046701772828</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.455880932987914</v>
+        <v>1.69688479489144</v>
       </c>
       <c r="D33">
-        <v>1.736372179310692</v>
+        <v>2.257596682775295</v>
       </c>
       <c r="E33">
-        <v>13.12608127773571</v>
+        <v>11.41046276765318</v>
       </c>
       <c r="F33">
-        <v>5.315447045867445</v>
+        <v>5.481897809569081</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.684194555028954</v>
+        <v>1.032492010231142</v>
       </c>
       <c r="D34">
-        <v>2.833870011473807</v>
+        <v>1.157862743767622</v>
       </c>
       <c r="E34">
-        <v>29.82756396382268</v>
+        <v>6.676197729263614</v>
       </c>
       <c r="F34">
-        <v>9.842046701772828</v>
+        <v>3.680448909114617</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1.69688479489144</v>
+        <v>2.480915680532604</v>
       </c>
       <c r="D35">
-        <v>2.257596682775295</v>
+        <v>2.936235172812243</v>
       </c>
       <c r="E35">
-        <v>11.41046276765318</v>
+        <v>16.68611841885322</v>
       </c>
       <c r="F35">
-        <v>5.481897809569081</v>
+        <v>8.303064575976055</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.032492010231142</v>
+        <v>2.197927979235236</v>
       </c>
       <c r="D36">
-        <v>1.157862743767622</v>
+        <v>2.487317801475717</v>
       </c>
       <c r="E36">
-        <v>6.676197729263614</v>
+        <v>17.44189266131621</v>
       </c>
       <c r="F36">
-        <v>3.680448909114617</v>
+        <v>7.160991158153511</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.480915680532604</v>
+        <v>1.658039227752565</v>
       </c>
       <c r="D37">
-        <v>2.936235172812243</v>
+        <v>1.805421875002608</v>
       </c>
       <c r="E37">
-        <v>16.68611841885322</v>
+        <v>11.07573951421524</v>
       </c>
       <c r="F37">
-        <v>8.303064575976055</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.197927979235236</v>
-      </c>
-      <c r="D38">
-        <v>2.487317801475717</v>
-      </c>
-      <c r="E38">
-        <v>17.44189266131621</v>
-      </c>
-      <c r="F38">
-        <v>7.160991158153511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.658039227752565</v>
-      </c>
-      <c r="D39">
-        <v>1.805421875002608</v>
-      </c>
-      <c r="E39">
-        <v>11.07573951421524</v>
-      </c>
-      <c r="F39">
         <v>7.009596735214092</v>
       </c>
     </row>
